--- a/memberHistory.xlsx
+++ b/memberHistory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>배포 환경 / 형상관리 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,16 @@
 src, WebContent 파일 추가
 sql 파일 누락으로 정상작동 안됨
 history 파일과 sql 파일 같이 업로드 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8c7665327029afaaf6a05e5646b10027edd861df
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 게시판(로그인,회원가입,회원수정,회원삭제,회원조회 수정)
+sql(회원정보 항목 수정,commit 코드 생성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,18 +489,35 @@
     </row>
     <row r="2" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/memberHistory.xlsx
+++ b/memberHistory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>배포 환경 / 형상관리 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,18 @@
   <si>
     <t xml:space="preserve"> 게시판(로그인,회원가입,회원수정,회원삭제,회원조회 수정)
 sql(회원정보 항목 수정,commit 코드 생성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지에 있는 title 태그, 문구 수정
+import 중복 제거
+회원가입페이지 전화번호 입력 박스에
+ 숫자만 입력해주세요 라는 문구 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+f2ca9201ec7cc1f06a67781c01769924380a1fc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,10 +507,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -506,18 +518,35 @@
     </row>
     <row r="3" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="219.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
